--- a/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/App-Cav1.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/App-Cav1.xlsx
@@ -543,16 +543,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>95.32301533333333</v>
+        <v>98.52314999999999</v>
       </c>
       <c r="H2">
-        <v>285.969046</v>
+        <v>295.56945</v>
       </c>
       <c r="I2">
-        <v>0.2086259240761469</v>
+        <v>0.1543096363744211</v>
       </c>
       <c r="J2">
-        <v>0.2086259240761469</v>
+        <v>0.1543096363744211</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>550.3824766666668</v>
+        <v>713.9976403333334</v>
       </c>
       <c r="N2">
-        <v>1651.14743</v>
+        <v>2141.992921</v>
       </c>
       <c r="O2">
-        <v>0.6168403739221149</v>
+        <v>0.7115986014020788</v>
       </c>
       <c r="P2">
-        <v>0.616840373922115</v>
+        <v>0.7115986014020788</v>
       </c>
       <c r="Q2">
-        <v>52464.11726249465</v>
+        <v>70345.29661820705</v>
       </c>
       <c r="R2">
-        <v>472177.0553624518</v>
+        <v>633107.6695638634</v>
       </c>
       <c r="S2">
-        <v>0.1286888930169772</v>
+        <v>0.1098065214269014</v>
       </c>
       <c r="T2">
-        <v>0.1286888930169772</v>
+        <v>0.1098065214269014</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -605,16 +605,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>95.32301533333333</v>
+        <v>98.52314999999999</v>
       </c>
       <c r="H3">
-        <v>285.969046</v>
+        <v>295.56945</v>
       </c>
       <c r="I3">
-        <v>0.2086259240761469</v>
+        <v>0.1543096363744211</v>
       </c>
       <c r="J3">
-        <v>0.2086259240761469</v>
+        <v>0.1543096363744211</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -629,22 +629,22 @@
         <v>654.373214</v>
       </c>
       <c r="O3">
-        <v>0.2444626147093213</v>
+        <v>0.2173915045713557</v>
       </c>
       <c r="P3">
-        <v>0.2444626147093213</v>
+        <v>0.2173915045713557</v>
       </c>
       <c r="Q3">
-        <v>20792.27597061487</v>
+        <v>21490.3034396347</v>
       </c>
       <c r="R3">
-        <v>187130.4837355338</v>
+        <v>193412.7309567123</v>
       </c>
       <c r="S3">
-        <v>0.05100123889580322</v>
+        <v>0.0335456040212942</v>
       </c>
       <c r="T3">
-        <v>0.05100123889580322</v>
+        <v>0.0335456040212942</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -667,46 +667,46 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>95.32301533333333</v>
+        <v>98.52314999999999</v>
       </c>
       <c r="H4">
-        <v>285.969046</v>
+        <v>295.56945</v>
       </c>
       <c r="I4">
-        <v>0.2086259240761469</v>
+        <v>0.1543096363744211</v>
       </c>
       <c r="J4">
-        <v>0.2086259240761469</v>
+        <v>0.1543096363744211</v>
       </c>
       <c r="K4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L4">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M4">
-        <v>0.451923</v>
+        <v>1.416166333333333</v>
       </c>
       <c r="N4">
-        <v>1.355769</v>
+        <v>4.248499</v>
       </c>
       <c r="O4">
-        <v>0.0005064920562011907</v>
+        <v>0.00141140800084751</v>
       </c>
       <c r="P4">
-        <v>0.0005064920562011908</v>
+        <v>0.001411408000847511</v>
       </c>
       <c r="Q4">
-        <v>43.078663058486</v>
+        <v>139.52516808395</v>
       </c>
       <c r="R4">
-        <v>387.707967526374</v>
+        <v>1255.72651275555</v>
       </c>
       <c r="S4">
-        <v>0.0001056673732622012</v>
+        <v>0.0002177938553867279</v>
       </c>
       <c r="T4">
-        <v>0.0001056673732622012</v>
+        <v>0.000217793855386728</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -729,16 +729,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>95.32301533333333</v>
+        <v>98.52314999999999</v>
       </c>
       <c r="H5">
-        <v>285.969046</v>
+        <v>295.56945</v>
       </c>
       <c r="I5">
-        <v>0.2086259240761469</v>
+        <v>0.1543096363744211</v>
       </c>
       <c r="J5">
-        <v>0.2086259240761469</v>
+        <v>0.1543096363744211</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -747,28 +747,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>119.8848903333333</v>
+        <v>63.50850433333333</v>
       </c>
       <c r="N5">
-        <v>359.654671</v>
+        <v>190.525513</v>
       </c>
       <c r="O5">
-        <v>0.1343608194590323</v>
+        <v>0.06329511514861516</v>
       </c>
       <c r="P5">
-        <v>0.1343608194590323</v>
+        <v>0.06329511514861517</v>
       </c>
       <c r="Q5">
-        <v>11427.78923947932</v>
+        <v>6257.057898708648</v>
       </c>
       <c r="R5">
-        <v>102850.1031553139</v>
+        <v>56313.52108837784</v>
       </c>
       <c r="S5">
-        <v>0.02803115011926896</v>
+        <v>0.009767046202859916</v>
       </c>
       <c r="T5">
-        <v>0.02803115011926896</v>
+        <v>0.00976704620285992</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,16 +791,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>95.32301533333333</v>
+        <v>98.52314999999999</v>
       </c>
       <c r="H6">
-        <v>285.969046</v>
+        <v>295.56945</v>
       </c>
       <c r="I6">
-        <v>0.2086259240761469</v>
+        <v>0.1543096363744211</v>
       </c>
       <c r="J6">
-        <v>0.2086259240761469</v>
+        <v>0.1543096363744211</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -809,28 +809,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>2.325947</v>
+        <v>2.117834333333334</v>
       </c>
       <c r="N6">
-        <v>6.977841</v>
+        <v>6.353503000000001</v>
       </c>
       <c r="O6">
-        <v>0.002606801775180708</v>
+        <v>0.002110718389626233</v>
       </c>
       <c r="P6">
-        <v>0.002606801775180708</v>
+        <v>0.002110718389626233</v>
       </c>
       <c r="Q6">
-        <v>221.7162815455206</v>
+        <v>208.65570969815</v>
       </c>
       <c r="R6">
-        <v>1995.446533909686</v>
+        <v>1877.90138728335</v>
       </c>
       <c r="S6">
-        <v>0.0005438464292304154</v>
+        <v>0.0003257041871920277</v>
       </c>
       <c r="T6">
-        <v>0.0005438464292304154</v>
+        <v>0.0003257041871920277</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,46 +853,46 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>95.32301533333333</v>
+        <v>98.52314999999999</v>
       </c>
       <c r="H7">
-        <v>285.969046</v>
+        <v>295.56945</v>
       </c>
       <c r="I7">
-        <v>0.2086259240761469</v>
+        <v>0.1543096363744211</v>
       </c>
       <c r="J7">
-        <v>0.2086259240761469</v>
+        <v>0.1543096363744211</v>
       </c>
       <c r="K7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L7">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M7">
-        <v>1.091144</v>
+        <v>4.206787333333334</v>
       </c>
       <c r="N7">
-        <v>3.273432</v>
+        <v>12.620362</v>
       </c>
       <c r="O7">
-        <v>0.001222898078149579</v>
+        <v>0.004192652487476611</v>
       </c>
       <c r="P7">
-        <v>0.001222898078149579</v>
+        <v>0.004192652487476611</v>
       </c>
       <c r="Q7">
-        <v>104.0111362428747</v>
+        <v>414.4659394601</v>
       </c>
       <c r="R7">
-        <v>936.100226185872</v>
+        <v>3730.193455140899</v>
       </c>
       <c r="S7">
-        <v>0.0002551282416049001</v>
+        <v>0.0006469666807868279</v>
       </c>
       <c r="T7">
-        <v>0.0002551282416049</v>
+        <v>0.0006469666807868279</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -921,10 +921,10 @@
         <v>263.560998</v>
       </c>
       <c r="I8">
-        <v>0.1922783515464171</v>
+        <v>0.1375988004303541</v>
       </c>
       <c r="J8">
-        <v>0.1922783515464171</v>
+        <v>0.1375988004303541</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -933,28 +933,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>550.3824766666668</v>
+        <v>713.9976403333334</v>
       </c>
       <c r="N8">
-        <v>1651.14743</v>
+        <v>2141.992921</v>
       </c>
       <c r="O8">
-        <v>0.6168403739221149</v>
+        <v>0.7115986014020788</v>
       </c>
       <c r="P8">
-        <v>0.616840373922115</v>
+        <v>0.7115986014020788</v>
       </c>
       <c r="Q8">
-        <v>48353.11827732615</v>
+        <v>62727.31021863281</v>
       </c>
       <c r="R8">
-        <v>435178.0644959353</v>
+        <v>564545.7919676952</v>
       </c>
       <c r="S8">
-        <v>0.1186050502650198</v>
+        <v>0.09791511394084375</v>
       </c>
       <c r="T8">
-        <v>0.1186050502650198</v>
+        <v>0.09791511394084375</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -983,10 +983,10 @@
         <v>263.560998</v>
       </c>
       <c r="I9">
-        <v>0.1922783515464171</v>
+        <v>0.1375988004303541</v>
       </c>
       <c r="J9">
-        <v>0.1922783515464171</v>
+        <v>0.1375988004303541</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -1001,10 +1001,10 @@
         <v>654.373214</v>
       </c>
       <c r="O9">
-        <v>0.2444626147093213</v>
+        <v>0.2173915045713557</v>
       </c>
       <c r="P9">
-        <v>0.2444626147093213</v>
+        <v>0.2173915045713557</v>
       </c>
       <c r="Q9">
         <v>19163.02859403418</v>
@@ -1013,10 +1013,10 @@
         <v>172467.2573463076</v>
       </c>
       <c r="S9">
-        <v>0.0470048685710352</v>
+        <v>0.02991281025276839</v>
       </c>
       <c r="T9">
-        <v>0.0470048685710352</v>
+        <v>0.02991281025276839</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1045,40 +1045,40 @@
         <v>263.560998</v>
       </c>
       <c r="I10">
-        <v>0.1922783515464171</v>
+        <v>0.1375988004303541</v>
       </c>
       <c r="J10">
-        <v>0.1922783515464171</v>
+        <v>0.1375988004303541</v>
       </c>
       <c r="K10">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L10">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M10">
-        <v>0.451923</v>
+        <v>1.416166333333333</v>
       </c>
       <c r="N10">
-        <v>1.355769</v>
+        <v>4.248499</v>
       </c>
       <c r="O10">
-        <v>0.0005064920562011907</v>
+        <v>0.00141140800084751</v>
       </c>
       <c r="P10">
-        <v>0.0005064920562011908</v>
+        <v>0.001411408000847511</v>
       </c>
       <c r="Q10">
-        <v>39.70309229971801</v>
+        <v>124.4154040491113</v>
       </c>
       <c r="R10">
-        <v>357.327830697462</v>
+        <v>1119.738636442002</v>
       </c>
       <c r="S10">
-        <v>9.738745763772021E-05</v>
+        <v>0.0001942080478344217</v>
       </c>
       <c r="T10">
-        <v>9.738745763772021E-05</v>
+        <v>0.0001942080478344217</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1107,10 +1107,10 @@
         <v>263.560998</v>
       </c>
       <c r="I11">
-        <v>0.1922783515464171</v>
+        <v>0.1375988004303541</v>
       </c>
       <c r="J11">
-        <v>0.1922783515464171</v>
+        <v>0.1375988004303541</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,28 +1119,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>119.8848903333333</v>
+        <v>63.50850433333333</v>
       </c>
       <c r="N11">
-        <v>359.654671</v>
+        <v>190.525513</v>
       </c>
       <c r="O11">
-        <v>0.1343608194590323</v>
+        <v>0.06329511514861516</v>
       </c>
       <c r="P11">
-        <v>0.1343608194590323</v>
+        <v>0.06329511514861517</v>
       </c>
       <c r="Q11">
-        <v>10532.3271137913</v>
+        <v>5579.45492786022</v>
       </c>
       <c r="R11">
-        <v>94790.94402412168</v>
+        <v>50215.09435074198</v>
       </c>
       <c r="S11">
-        <v>0.0258346768780085</v>
+        <v>0.008709331917550583</v>
       </c>
       <c r="T11">
-        <v>0.0258346768780085</v>
+        <v>0.008709331917550585</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1169,10 +1169,10 @@
         <v>263.560998</v>
       </c>
       <c r="I12">
-        <v>0.1922783515464171</v>
+        <v>0.1375988004303541</v>
       </c>
       <c r="J12">
-        <v>0.1922783515464171</v>
+        <v>0.1375988004303541</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1181,28 +1181,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>2.325947</v>
+        <v>2.117834333333334</v>
       </c>
       <c r="N12">
-        <v>6.977841</v>
+        <v>6.353503000000001</v>
       </c>
       <c r="O12">
-        <v>0.002606801775180708</v>
+        <v>0.002110718389626233</v>
       </c>
       <c r="P12">
-        <v>0.002606801775180708</v>
+        <v>0.002110718389626233</v>
       </c>
       <c r="Q12">
-        <v>204.342970871702</v>
+        <v>186.0595101639994</v>
       </c>
       <c r="R12">
-        <v>1839.086737845318</v>
+        <v>1674.535591475995</v>
       </c>
       <c r="S12">
-        <v>0.0005012315481400203</v>
+        <v>0.0002904323184588585</v>
       </c>
       <c r="T12">
-        <v>0.0005012315481400203</v>
+        <v>0.0002904323184588585</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1231,40 +1231,40 @@
         <v>263.560998</v>
       </c>
       <c r="I13">
-        <v>0.1922783515464171</v>
+        <v>0.1375988004303541</v>
       </c>
       <c r="J13">
-        <v>0.1922783515464171</v>
+        <v>0.1375988004303541</v>
       </c>
       <c r="K13">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L13">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M13">
-        <v>1.091144</v>
+        <v>4.206787333333334</v>
       </c>
       <c r="N13">
-        <v>3.273432</v>
+        <v>12.620362</v>
       </c>
       <c r="O13">
-        <v>0.001222898078149579</v>
+        <v>0.004192652487476611</v>
       </c>
       <c r="P13">
-        <v>0.001222898078149579</v>
+        <v>0.004192652487476611</v>
       </c>
       <c r="Q13">
-        <v>95.86100053390403</v>
+        <v>369.5816893156974</v>
       </c>
       <c r="R13">
-        <v>862.7490048051361</v>
+        <v>3326.235203841276</v>
       </c>
       <c r="S13">
-        <v>0.0002351368265758826</v>
+        <v>0.000576903952898122</v>
       </c>
       <c r="T13">
-        <v>0.0002351368265758826</v>
+        <v>0.000576903952898122</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1287,16 +1287,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>89.00545999999999</v>
+        <v>137.0699463333333</v>
       </c>
       <c r="H14">
-        <v>267.01638</v>
+        <v>411.209839</v>
       </c>
       <c r="I14">
-        <v>0.1947991917312883</v>
+        <v>0.2146826768790693</v>
       </c>
       <c r="J14">
-        <v>0.1947991917312882</v>
+        <v>0.2146826768790693</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1305,28 +1305,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>550.3824766666668</v>
+        <v>713.9976403333334</v>
       </c>
       <c r="N14">
-        <v>1651.14743</v>
+        <v>2141.992921</v>
       </c>
       <c r="O14">
-        <v>0.6168403739221149</v>
+        <v>0.7115986014020788</v>
       </c>
       <c r="P14">
-        <v>0.616840373922115</v>
+        <v>0.7115986014020788</v>
       </c>
       <c r="Q14">
-        <v>48987.04551165593</v>
+        <v>97867.61824261663</v>
       </c>
       <c r="R14">
-        <v>440883.4096049034</v>
+        <v>880808.5641835497</v>
       </c>
       <c r="S14">
-        <v>0.1201600062672536</v>
+        <v>0.1527678926124001</v>
       </c>
       <c r="T14">
-        <v>0.1201600062672536</v>
+        <v>0.1527678926124001</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1349,16 +1349,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>89.00545999999999</v>
+        <v>137.0699463333333</v>
       </c>
       <c r="H15">
-        <v>267.01638</v>
+        <v>411.209839</v>
       </c>
       <c r="I15">
-        <v>0.1947991917312883</v>
+        <v>0.2146826768790693</v>
       </c>
       <c r="J15">
-        <v>0.1947991917312882</v>
+        <v>0.2146826768790693</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1373,22 +1373,22 @@
         <v>654.373214</v>
       </c>
       <c r="O15">
-        <v>0.2444626147093213</v>
+        <v>0.2173915045713557</v>
       </c>
       <c r="P15">
-        <v>0.2444626147093213</v>
+        <v>0.2173915045713557</v>
       </c>
       <c r="Q15">
-        <v>19414.26297458281</v>
+        <v>29898.30044165028</v>
       </c>
       <c r="R15">
-        <v>174728.3667712453</v>
+        <v>269084.7039748525</v>
       </c>
       <c r="S15">
-        <v>0.04762111975389312</v>
+        <v>0.04667019013214709</v>
       </c>
       <c r="T15">
-        <v>0.04762111975389312</v>
+        <v>0.04667019013214709</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1411,46 +1411,46 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>89.00545999999999</v>
+        <v>137.0699463333333</v>
       </c>
       <c r="H16">
-        <v>267.01638</v>
+        <v>411.209839</v>
       </c>
       <c r="I16">
-        <v>0.1947991917312883</v>
+        <v>0.2146826768790693</v>
       </c>
       <c r="J16">
-        <v>0.1947991917312882</v>
+        <v>0.2146826768790693</v>
       </c>
       <c r="K16">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L16">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M16">
-        <v>0.451923</v>
+        <v>1.416166333333333</v>
       </c>
       <c r="N16">
-        <v>1.355769</v>
+        <v>4.248499</v>
       </c>
       <c r="O16">
-        <v>0.0005064920562011907</v>
+        <v>0.00141140800084751</v>
       </c>
       <c r="P16">
-        <v>0.0005064920562011908</v>
+        <v>0.001411408000847511</v>
       </c>
       <c r="Q16">
-        <v>40.22361449957999</v>
+        <v>194.1138433090734</v>
       </c>
       <c r="R16">
-        <v>362.0125304962199</v>
+        <v>1747.024589781661</v>
       </c>
       <c r="S16">
-        <v>9.866424316631018E-05</v>
+        <v>0.0003030048477904793</v>
       </c>
       <c r="T16">
-        <v>9.866424316631018E-05</v>
+        <v>0.0003030048477904794</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1473,16 +1473,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>89.00545999999999</v>
+        <v>137.0699463333333</v>
       </c>
       <c r="H17">
-        <v>267.01638</v>
+        <v>411.209839</v>
       </c>
       <c r="I17">
-        <v>0.1947991917312883</v>
+        <v>0.2146826768790693</v>
       </c>
       <c r="J17">
-        <v>0.1947991917312882</v>
+        <v>0.2146826768790693</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1491,28 +1491,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>119.8848903333333</v>
+        <v>63.50850433333333</v>
       </c>
       <c r="N17">
-        <v>359.654671</v>
+        <v>190.525513</v>
       </c>
       <c r="O17">
-        <v>0.1343608194590323</v>
+        <v>0.06329511514861516</v>
       </c>
       <c r="P17">
-        <v>0.1343608194590323</v>
+        <v>0.06329511514861517</v>
       </c>
       <c r="Q17">
-        <v>10670.40981116788</v>
+        <v>8705.107280680266</v>
       </c>
       <c r="R17">
-        <v>96033.68830051097</v>
+        <v>78345.9655261224</v>
       </c>
       <c r="S17">
-        <v>0.02617337903097304</v>
+        <v>0.01358836475347363</v>
       </c>
       <c r="T17">
-        <v>0.02617337903097304</v>
+        <v>0.01358836475347364</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1535,16 +1535,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>89.00545999999999</v>
+        <v>137.0699463333333</v>
       </c>
       <c r="H18">
-        <v>267.01638</v>
+        <v>411.209839</v>
       </c>
       <c r="I18">
-        <v>0.1947991917312883</v>
+        <v>0.2146826768790693</v>
       </c>
       <c r="J18">
-        <v>0.1947991917312882</v>
+        <v>0.2146826768790693</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1553,28 +1553,28 @@
         <v>1</v>
       </c>
       <c r="M18">
-        <v>2.325947</v>
+        <v>2.117834333333334</v>
       </c>
       <c r="N18">
-        <v>6.977841</v>
+        <v>6.353503000000001</v>
       </c>
       <c r="O18">
-        <v>0.002606801775180708</v>
+        <v>0.002110718389626233</v>
       </c>
       <c r="P18">
-        <v>0.002606801775180708</v>
+        <v>0.002110718389626233</v>
       </c>
       <c r="Q18">
-        <v>207.0219826706199</v>
+        <v>290.2914384128908</v>
       </c>
       <c r="R18">
-        <v>1863.19784403558</v>
+        <v>2612.622945716017</v>
       </c>
       <c r="S18">
-        <v>0.0005078028788088893</v>
+        <v>0.0004531346740228382</v>
       </c>
       <c r="T18">
-        <v>0.0005078028788088893</v>
+        <v>0.0004531346740228382</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1597,46 +1597,46 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>89.00545999999999</v>
+        <v>137.0699463333333</v>
       </c>
       <c r="H19">
-        <v>267.01638</v>
+        <v>411.209839</v>
       </c>
       <c r="I19">
-        <v>0.1947991917312883</v>
+        <v>0.2146826768790693</v>
       </c>
       <c r="J19">
-        <v>0.1947991917312882</v>
+        <v>0.2146826768790693</v>
       </c>
       <c r="K19">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L19">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M19">
-        <v>1.091144</v>
+        <v>4.206787333333334</v>
       </c>
       <c r="N19">
-        <v>3.273432</v>
+        <v>12.620362</v>
       </c>
       <c r="O19">
-        <v>0.001222898078149579</v>
+        <v>0.004192652487476611</v>
       </c>
       <c r="P19">
-        <v>0.001222898078149579</v>
+        <v>0.004192652487476611</v>
       </c>
       <c r="Q19">
-        <v>97.11777364624</v>
+        <v>576.6241140157464</v>
       </c>
       <c r="R19">
-        <v>874.0599628161599</v>
+        <v>5189.617026141718</v>
       </c>
       <c r="S19">
-        <v>0.0002382195571932837</v>
+        <v>0.0009000898592351676</v>
       </c>
       <c r="T19">
-        <v>0.0002382195571932837</v>
+        <v>0.0009000898592351676</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1659,16 +1659,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>44.07463300000001</v>
+        <v>18.36172366666667</v>
       </c>
       <c r="H20">
-        <v>132.223899</v>
+        <v>55.085171</v>
       </c>
       <c r="I20">
-        <v>0.09646265391194167</v>
+        <v>0.02875863086199473</v>
       </c>
       <c r="J20">
-        <v>0.09646265391194166</v>
+        <v>0.02875863086199473</v>
       </c>
       <c r="K20">
         <v>3</v>
@@ -1677,28 +1677,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>550.3824766666668</v>
+        <v>713.9976403333334</v>
       </c>
       <c r="N20">
-        <v>1651.14743</v>
+        <v>2141.992921</v>
       </c>
       <c r="O20">
-        <v>0.6168403739221149</v>
+        <v>0.7115986014020788</v>
       </c>
       <c r="P20">
-        <v>0.616840373922115</v>
+        <v>0.7115986014020788</v>
       </c>
       <c r="Q20">
-        <v>24257.9056687144</v>
+        <v>13110.22737045272</v>
       </c>
       <c r="R20">
-        <v>218321.1510184296</v>
+        <v>117992.0463340745</v>
       </c>
       <c r="S20">
-        <v>0.05950205950856166</v>
+        <v>0.0204646014996341</v>
       </c>
       <c r="T20">
-        <v>0.05950205950856166</v>
+        <v>0.0204646014996341</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1721,16 +1721,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>44.07463300000001</v>
+        <v>18.36172366666667</v>
       </c>
       <c r="H21">
-        <v>132.223899</v>
+        <v>55.085171</v>
       </c>
       <c r="I21">
-        <v>0.09646265391194167</v>
+        <v>0.02875863086199473</v>
       </c>
       <c r="J21">
-        <v>0.09646265391194166</v>
+        <v>0.02875863086199473</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1745,22 +1745,22 @@
         <v>654.373214</v>
       </c>
       <c r="O21">
-        <v>0.2444626147093213</v>
+        <v>0.2173915045713557</v>
       </c>
       <c r="P21">
-        <v>0.2444626147093213</v>
+        <v>0.2173915045713557</v>
       </c>
       <c r="Q21">
-        <v>9613.753084026821</v>
+        <v>4005.14004344551</v>
       </c>
       <c r="R21">
-        <v>86523.7777562414</v>
+        <v>36046.26039100959</v>
       </c>
       <c r="S21">
-        <v>0.0235815125971136</v>
+        <v>0.006251882032501258</v>
       </c>
       <c r="T21">
-        <v>0.0235815125971136</v>
+        <v>0.006251882032501258</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1783,46 +1783,46 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>44.07463300000001</v>
+        <v>18.36172366666667</v>
       </c>
       <c r="H22">
-        <v>132.223899</v>
+        <v>55.085171</v>
       </c>
       <c r="I22">
-        <v>0.09646265391194167</v>
+        <v>0.02875863086199473</v>
       </c>
       <c r="J22">
-        <v>0.09646265391194166</v>
+        <v>0.02875863086199473</v>
       </c>
       <c r="K22">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L22">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M22">
-        <v>0.451923</v>
+        <v>1.416166333333333</v>
       </c>
       <c r="N22">
-        <v>1.355769</v>
+        <v>4.248499</v>
       </c>
       <c r="O22">
-        <v>0.0005064920562011907</v>
+        <v>0.00141140800084751</v>
       </c>
       <c r="P22">
-        <v>0.0005064920562011908</v>
+        <v>0.001411408000847511</v>
       </c>
       <c r="Q22">
-        <v>19.918340369259</v>
+        <v>26.00325487870322</v>
       </c>
       <c r="R22">
-        <v>179.265063323331</v>
+        <v>234.029293908329</v>
       </c>
       <c r="S22">
-        <v>4.885756792648317E-05</v>
+        <v>4.059016169203949E-05</v>
       </c>
       <c r="T22">
-        <v>4.885756792648318E-05</v>
+        <v>4.05901616920395E-05</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1845,16 +1845,16 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>44.07463300000001</v>
+        <v>18.36172366666667</v>
       </c>
       <c r="H23">
-        <v>132.223899</v>
+        <v>55.085171</v>
       </c>
       <c r="I23">
-        <v>0.09646265391194167</v>
+        <v>0.02875863086199473</v>
       </c>
       <c r="J23">
-        <v>0.09646265391194166</v>
+        <v>0.02875863086199473</v>
       </c>
       <c r="K23">
         <v>3</v>
@@ -1863,28 +1863,28 @@
         <v>1</v>
       </c>
       <c r="M23">
-        <v>119.8848903333333</v>
+        <v>63.50850433333333</v>
       </c>
       <c r="N23">
-        <v>359.654671</v>
+        <v>190.525513</v>
       </c>
       <c r="O23">
-        <v>0.1343608194590323</v>
+        <v>0.06329511514861516</v>
       </c>
       <c r="P23">
-        <v>0.1343608194590323</v>
+        <v>0.06329511514861517</v>
       </c>
       <c r="Q23">
-        <v>5283.882543686915</v>
+        <v>1166.125607051969</v>
       </c>
       <c r="R23">
-        <v>47554.94289318223</v>
+        <v>10495.13046346772</v>
       </c>
       <c r="S23">
-        <v>0.01296080122680151</v>
+        <v>0.001820280851926474</v>
       </c>
       <c r="T23">
-        <v>0.01296080122680151</v>
+        <v>0.001820280851926474</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1907,16 +1907,16 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>44.07463300000001</v>
+        <v>18.36172366666667</v>
       </c>
       <c r="H24">
-        <v>132.223899</v>
+        <v>55.085171</v>
       </c>
       <c r="I24">
-        <v>0.09646265391194167</v>
+        <v>0.02875863086199473</v>
       </c>
       <c r="J24">
-        <v>0.09646265391194166</v>
+        <v>0.02875863086199473</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1925,28 +1925,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>2.325947</v>
+        <v>2.117834333333334</v>
       </c>
       <c r="N24">
-        <v>6.977841</v>
+        <v>6.353503000000001</v>
       </c>
       <c r="O24">
-        <v>0.002606801775180708</v>
+        <v>0.002110718389626233</v>
       </c>
       <c r="P24">
-        <v>0.002606801775180708</v>
+        <v>0.002110718389626233</v>
       </c>
       <c r="Q24">
-        <v>102.515260402451</v>
+        <v>38.88708880044589</v>
       </c>
       <c r="R24">
-        <v>922.6373436220591</v>
+        <v>349.9837992040131</v>
       </c>
       <c r="S24">
-        <v>0.0002514590174562918</v>
+        <v>6.070137102088481E-05</v>
       </c>
       <c r="T24">
-        <v>0.0002514590174562918</v>
+        <v>6.070137102088481E-05</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1969,46 +1969,46 @@
         <v>1</v>
       </c>
       <c r="G25">
-        <v>44.07463300000001</v>
+        <v>18.36172366666667</v>
       </c>
       <c r="H25">
-        <v>132.223899</v>
+        <v>55.085171</v>
       </c>
       <c r="I25">
-        <v>0.09646265391194167</v>
+        <v>0.02875863086199473</v>
       </c>
       <c r="J25">
-        <v>0.09646265391194166</v>
+        <v>0.02875863086199473</v>
       </c>
       <c r="K25">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L25">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M25">
-        <v>1.091144</v>
+        <v>4.206787333333334</v>
       </c>
       <c r="N25">
-        <v>3.273432</v>
+        <v>12.620362</v>
       </c>
       <c r="O25">
-        <v>0.001222898078149579</v>
+        <v>0.004192652487476611</v>
       </c>
       <c r="P25">
-        <v>0.001222898078149579</v>
+        <v>0.004192652487476611</v>
       </c>
       <c r="Q25">
-        <v>48.09177135015201</v>
+        <v>77.24386653910022</v>
       </c>
       <c r="R25">
-        <v>432.8259421513681</v>
+        <v>695.1947988519021</v>
       </c>
       <c r="S25">
-        <v>0.0001179639940821214</v>
+        <v>0.0001205749452199638</v>
       </c>
       <c r="T25">
-        <v>0.0001179639940821214</v>
+        <v>0.0001205749452199638</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2031,16 +2031,16 @@
         <v>1</v>
       </c>
       <c r="G26">
-        <v>72.54370233333333</v>
+        <v>90.60931133333334</v>
       </c>
       <c r="H26">
-        <v>217.631107</v>
+        <v>271.827934</v>
       </c>
       <c r="I26">
-        <v>0.1587706482245977</v>
+        <v>0.1419147670774166</v>
       </c>
       <c r="J26">
-        <v>0.1587706482245977</v>
+        <v>0.1419147670774166</v>
       </c>
       <c r="K26">
         <v>3</v>
@@ -2049,28 +2049,28 @@
         <v>1</v>
       </c>
       <c r="M26">
-        <v>550.3824766666668</v>
+        <v>713.9976403333334</v>
       </c>
       <c r="N26">
-        <v>1651.14743</v>
+        <v>2141.992921</v>
       </c>
       <c r="O26">
-        <v>0.6168403739221149</v>
+        <v>0.7115986014020788</v>
       </c>
       <c r="P26">
-        <v>0.616840373922115</v>
+        <v>0.7115986014020788</v>
       </c>
       <c r="Q26">
-        <v>39926.78255678945</v>
+        <v>64694.83448422836</v>
       </c>
       <c r="R26">
-        <v>359341.043011105</v>
+        <v>582253.5103580552</v>
       </c>
       <c r="S26">
-        <v>0.09793614601871743</v>
+        <v>0.1009863497705914</v>
       </c>
       <c r="T26">
-        <v>0.09793614601871743</v>
+        <v>0.1009863497705914</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2093,16 +2093,16 @@
         <v>1</v>
       </c>
       <c r="G27">
-        <v>72.54370233333333</v>
+        <v>90.60931133333334</v>
       </c>
       <c r="H27">
-        <v>217.631107</v>
+        <v>271.827934</v>
       </c>
       <c r="I27">
-        <v>0.1587706482245977</v>
+        <v>0.1419147670774166</v>
       </c>
       <c r="J27">
-        <v>0.1587706482245977</v>
+        <v>0.1419147670774166</v>
       </c>
       <c r="K27">
         <v>3</v>
@@ -2117,22 +2117,22 @@
         <v>654.373214</v>
       </c>
       <c r="O27">
-        <v>0.2444626147093213</v>
+        <v>0.2173915045713557</v>
       </c>
       <c r="P27">
-        <v>0.2444626147093213</v>
+        <v>0.2173915045713557</v>
       </c>
       <c r="Q27">
-        <v>15823.55188377421</v>
+        <v>19764.10209183999</v>
       </c>
       <c r="R27">
-        <v>142411.9669539679</v>
+        <v>177876.9188265599</v>
       </c>
       <c r="S27">
-        <v>0.03881348780407902</v>
+        <v>0.0308510647358531</v>
       </c>
       <c r="T27">
-        <v>0.03881348780407902</v>
+        <v>0.0308510647358531</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2155,46 +2155,46 @@
         <v>1</v>
       </c>
       <c r="G28">
-        <v>72.54370233333333</v>
+        <v>90.60931133333334</v>
       </c>
       <c r="H28">
-        <v>217.631107</v>
+        <v>271.827934</v>
       </c>
       <c r="I28">
-        <v>0.1587706482245977</v>
+        <v>0.1419147670774166</v>
       </c>
       <c r="J28">
-        <v>0.1587706482245977</v>
+        <v>0.1419147670774166</v>
       </c>
       <c r="K28">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L28">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M28">
-        <v>0.451923</v>
+        <v>1.416166333333333</v>
       </c>
       <c r="N28">
-        <v>1.355769</v>
+        <v>4.248499</v>
       </c>
       <c r="O28">
-        <v>0.0005064920562011907</v>
+        <v>0.00141140800084751</v>
       </c>
       <c r="P28">
-        <v>0.0005064920562011908</v>
+        <v>0.001411408000847511</v>
       </c>
       <c r="Q28">
-        <v>32.784167589587</v>
+        <v>128.3178561967851</v>
       </c>
       <c r="R28">
-        <v>295.057508306283</v>
+        <v>1154.860705771066</v>
       </c>
       <c r="S28">
-        <v>8.041607208367244E-05</v>
+        <v>0.0002002996376914767</v>
       </c>
       <c r="T28">
-        <v>8.041607208367244E-05</v>
+        <v>0.0002002996376914767</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2217,16 +2217,16 @@
         <v>1</v>
       </c>
       <c r="G29">
-        <v>72.54370233333333</v>
+        <v>90.60931133333334</v>
       </c>
       <c r="H29">
-        <v>217.631107</v>
+        <v>271.827934</v>
       </c>
       <c r="I29">
-        <v>0.1587706482245977</v>
+        <v>0.1419147670774166</v>
       </c>
       <c r="J29">
-        <v>0.1587706482245977</v>
+        <v>0.1419147670774166</v>
       </c>
       <c r="K29">
         <v>3</v>
@@ -2235,28 +2235,28 @@
         <v>1</v>
       </c>
       <c r="M29">
-        <v>119.8848903333333</v>
+        <v>63.50850433333333</v>
       </c>
       <c r="N29">
-        <v>359.654671</v>
+        <v>190.525513</v>
       </c>
       <c r="O29">
-        <v>0.1343608194590323</v>
+        <v>0.06329511514861516</v>
       </c>
       <c r="P29">
-        <v>0.1343608194590323</v>
+        <v>0.06329511514861517</v>
       </c>
       <c r="Q29">
-        <v>8696.893798605643</v>
+        <v>5754.461841453349</v>
       </c>
       <c r="R29">
-        <v>78272.0441874508</v>
+        <v>51790.15657308014</v>
       </c>
       <c r="S29">
-        <v>0.02133255440149871</v>
+        <v>0.008982511523453985</v>
       </c>
       <c r="T29">
-        <v>0.02133255440149871</v>
+        <v>0.008982511523453987</v>
       </c>
     </row>
     <row r="30" spans="1:20">
@@ -2279,16 +2279,16 @@
         <v>1</v>
       </c>
       <c r="G30">
-        <v>72.54370233333333</v>
+        <v>90.60931133333334</v>
       </c>
       <c r="H30">
-        <v>217.631107</v>
+        <v>271.827934</v>
       </c>
       <c r="I30">
-        <v>0.1587706482245977</v>
+        <v>0.1419147670774166</v>
       </c>
       <c r="J30">
-        <v>0.1587706482245977</v>
+        <v>0.1419147670774166</v>
       </c>
       <c r="K30">
         <v>3</v>
@@ -2297,28 +2297,28 @@
         <v>1</v>
       </c>
       <c r="M30">
-        <v>2.325947</v>
+        <v>2.117834333333334</v>
       </c>
       <c r="N30">
-        <v>6.977841</v>
+        <v>6.353503000000001</v>
       </c>
       <c r="O30">
-        <v>0.002606801775180708</v>
+        <v>0.002110718389626233</v>
       </c>
       <c r="P30">
-        <v>0.002606801775180708</v>
+        <v>0.002110718389626233</v>
       </c>
       <c r="Q30">
-        <v>168.7328068111096</v>
+        <v>191.8955104614225</v>
       </c>
       <c r="R30">
-        <v>1518.595261299987</v>
+        <v>1727.059594152802</v>
       </c>
       <c r="S30">
-        <v>0.000413883607638473</v>
+        <v>0.0002995421086298268</v>
       </c>
       <c r="T30">
-        <v>0.000413883607638473</v>
+        <v>0.0002995421086298268</v>
       </c>
     </row>
     <row r="31" spans="1:20">
@@ -2341,46 +2341,46 @@
         <v>1</v>
       </c>
       <c r="G31">
-        <v>72.54370233333333</v>
+        <v>90.60931133333334</v>
       </c>
       <c r="H31">
-        <v>217.631107</v>
+        <v>271.827934</v>
       </c>
       <c r="I31">
-        <v>0.1587706482245977</v>
+        <v>0.1419147670774166</v>
       </c>
       <c r="J31">
-        <v>0.1587706482245977</v>
+        <v>0.1419147670774166</v>
       </c>
       <c r="K31">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L31">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M31">
-        <v>1.091144</v>
+        <v>4.206787333333334</v>
       </c>
       <c r="N31">
-        <v>3.273432</v>
+        <v>12.620362</v>
       </c>
       <c r="O31">
-        <v>0.001222898078149579</v>
+        <v>0.004192652487476611</v>
       </c>
       <c r="P31">
-        <v>0.001222898078149579</v>
+        <v>0.004192652487476611</v>
       </c>
       <c r="Q31">
-        <v>79.15562553880267</v>
+        <v>381.1741031991232</v>
       </c>
       <c r="R31">
-        <v>712.4006298492239</v>
+        <v>3430.566928792108</v>
       </c>
       <c r="S31">
-        <v>0.0001941603205804234</v>
+        <v>0.0005949993011967946</v>
       </c>
       <c r="T31">
-        <v>0.0001941603205804234</v>
+        <v>0.0005949993011967946</v>
       </c>
     </row>
     <row r="32" spans="1:20">
@@ -2403,16 +2403,16 @@
         <v>1</v>
       </c>
       <c r="G32">
-        <v>68.108298</v>
+        <v>206.0591786666667</v>
       </c>
       <c r="H32">
-        <v>204.324894</v>
+        <v>618.177536</v>
       </c>
       <c r="I32">
-        <v>0.1490632305096083</v>
+        <v>0.322735488376744</v>
       </c>
       <c r="J32">
-        <v>0.1490632305096083</v>
+        <v>0.322735488376744</v>
       </c>
       <c r="K32">
         <v>3</v>
@@ -2421,28 +2421,28 @@
         <v>1</v>
       </c>
       <c r="M32">
-        <v>550.3824766666668</v>
+        <v>713.9976403333334</v>
       </c>
       <c r="N32">
-        <v>1651.14743</v>
+        <v>2141.992921</v>
       </c>
       <c r="O32">
-        <v>0.6168403739221149</v>
+        <v>0.7115986014020788</v>
       </c>
       <c r="P32">
-        <v>0.616840373922115</v>
+        <v>0.7115986014020788</v>
       </c>
       <c r="Q32">
-        <v>37485.61373479139</v>
+        <v>147125.7673370247</v>
       </c>
       <c r="R32">
-        <v>337370.5236131225</v>
+        <v>1324131.906033223</v>
       </c>
       <c r="S32">
-        <v>0.09194821884558518</v>
+        <v>0.2296581221517079</v>
       </c>
       <c r="T32">
-        <v>0.09194821884558518</v>
+        <v>0.2296581221517079</v>
       </c>
     </row>
     <row r="33" spans="1:20">
@@ -2465,16 +2465,16 @@
         <v>1</v>
       </c>
       <c r="G33">
-        <v>68.108298</v>
+        <v>206.0591786666667</v>
       </c>
       <c r="H33">
-        <v>204.324894</v>
+        <v>618.177536</v>
       </c>
       <c r="I33">
-        <v>0.1490632305096083</v>
+        <v>0.322735488376744</v>
       </c>
       <c r="J33">
-        <v>0.1490632305096083</v>
+        <v>0.322735488376744</v>
       </c>
       <c r="K33">
         <v>3</v>
@@ -2489,22 +2489,22 @@
         <v>654.373214</v>
       </c>
       <c r="O33">
-        <v>0.2444626147093213</v>
+        <v>0.2173915045713557</v>
       </c>
       <c r="P33">
-        <v>0.2444626147093213</v>
+        <v>0.2173915045713557</v>
       </c>
       <c r="Q33">
-        <v>14856.08195410992</v>
+        <v>44946.53567276897</v>
       </c>
       <c r="R33">
-        <v>133704.7375869893</v>
+        <v>404518.8210549207</v>
       </c>
       <c r="S33">
-        <v>0.03644038708739712</v>
+        <v>0.07015995339679167</v>
       </c>
       <c r="T33">
-        <v>0.03644038708739711</v>
+        <v>0.07015995339679167</v>
       </c>
     </row>
     <row r="34" spans="1:20">
@@ -2527,46 +2527,46 @@
         <v>1</v>
       </c>
       <c r="G34">
-        <v>68.108298</v>
+        <v>206.0591786666667</v>
       </c>
       <c r="H34">
-        <v>204.324894</v>
+        <v>618.177536</v>
       </c>
       <c r="I34">
-        <v>0.1490632305096083</v>
+        <v>0.322735488376744</v>
       </c>
       <c r="J34">
-        <v>0.1490632305096083</v>
+        <v>0.322735488376744</v>
       </c>
       <c r="K34">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L34">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M34">
-        <v>0.451923</v>
+        <v>1.416166333333333</v>
       </c>
       <c r="N34">
-        <v>1.355769</v>
+        <v>4.248499</v>
       </c>
       <c r="O34">
-        <v>0.0005064920562011907</v>
+        <v>0.00141140800084751</v>
       </c>
       <c r="P34">
-        <v>0.0005064920562011908</v>
+        <v>0.001411408000847511</v>
       </c>
       <c r="Q34">
-        <v>30.779706357054</v>
+        <v>291.8140715020515</v>
       </c>
       <c r="R34">
-        <v>277.017357213486</v>
+        <v>2626.326643518464</v>
       </c>
       <c r="S34">
-        <v>7.549934212480357E-05</v>
+        <v>0.0004555114504523652</v>
       </c>
       <c r="T34">
-        <v>7.549934212480357E-05</v>
+        <v>0.0004555114504523653</v>
       </c>
     </row>
     <row r="35" spans="1:20">
@@ -2589,16 +2589,16 @@
         <v>1</v>
       </c>
       <c r="G35">
-        <v>68.108298</v>
+        <v>206.0591786666667</v>
       </c>
       <c r="H35">
-        <v>204.324894</v>
+        <v>618.177536</v>
       </c>
       <c r="I35">
-        <v>0.1490632305096083</v>
+        <v>0.322735488376744</v>
       </c>
       <c r="J35">
-        <v>0.1490632305096083</v>
+        <v>0.322735488376744</v>
       </c>
       <c r="K35">
         <v>3</v>
@@ -2607,28 +2607,28 @@
         <v>1</v>
       </c>
       <c r="M35">
-        <v>119.8848903333333</v>
+        <v>63.50850433333333</v>
       </c>
       <c r="N35">
-        <v>359.654671</v>
+        <v>190.525513</v>
       </c>
       <c r="O35">
-        <v>0.1343608194590323</v>
+        <v>0.06329511514861516</v>
       </c>
       <c r="P35">
-        <v>0.1343608194590323</v>
+        <v>0.06329511514861517</v>
       </c>
       <c r="Q35">
-        <v>8165.155836519986</v>
+        <v>13086.51024127511</v>
       </c>
       <c r="R35">
-        <v>73486.40252867989</v>
+        <v>117778.592171476</v>
       </c>
       <c r="S35">
-        <v>0.0200282578024816</v>
+        <v>0.02042757989935056</v>
       </c>
       <c r="T35">
-        <v>0.0200282578024816</v>
+        <v>0.02042757989935056</v>
       </c>
     </row>
     <row r="36" spans="1:20">
@@ -2651,16 +2651,16 @@
         <v>1</v>
       </c>
       <c r="G36">
-        <v>68.108298</v>
+        <v>206.0591786666667</v>
       </c>
       <c r="H36">
-        <v>204.324894</v>
+        <v>618.177536</v>
       </c>
       <c r="I36">
-        <v>0.1490632305096083</v>
+        <v>0.322735488376744</v>
       </c>
       <c r="J36">
-        <v>0.1490632305096083</v>
+        <v>0.322735488376744</v>
       </c>
       <c r="K36">
         <v>3</v>
@@ -2669,28 +2669,28 @@
         <v>1</v>
       </c>
       <c r="M36">
-        <v>2.325947</v>
+        <v>2.117834333333334</v>
       </c>
       <c r="N36">
-        <v>6.977841</v>
+        <v>6.353503000000001</v>
       </c>
       <c r="O36">
-        <v>0.002606801775180708</v>
+        <v>0.002110718389626233</v>
       </c>
       <c r="P36">
-        <v>0.002606801775180708</v>
+        <v>0.002110718389626233</v>
       </c>
       <c r="Q36">
-        <v>158.416291408206</v>
+        <v>436.3992032787343</v>
       </c>
       <c r="R36">
-        <v>1425.746622673854</v>
+        <v>3927.592829508609</v>
       </c>
       <c r="S36">
-        <v>0.0003885782939066179</v>
+        <v>0.000681203730301797</v>
       </c>
       <c r="T36">
-        <v>0.0003885782939066179</v>
+        <v>0.000681203730301797</v>
       </c>
     </row>
     <row r="37" spans="1:20">
@@ -2713,46 +2713,46 @@
         <v>1</v>
       </c>
       <c r="G37">
-        <v>68.108298</v>
+        <v>206.0591786666667</v>
       </c>
       <c r="H37">
-        <v>204.324894</v>
+        <v>618.177536</v>
       </c>
       <c r="I37">
-        <v>0.1490632305096083</v>
+        <v>0.322735488376744</v>
       </c>
       <c r="J37">
-        <v>0.1490632305096083</v>
+        <v>0.322735488376744</v>
       </c>
       <c r="K37">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L37">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M37">
-        <v>1.091144</v>
+        <v>4.206787333333334</v>
       </c>
       <c r="N37">
-        <v>3.273432</v>
+        <v>12.620362</v>
       </c>
       <c r="O37">
-        <v>0.001222898078149579</v>
+        <v>0.004192652487476611</v>
       </c>
       <c r="P37">
-        <v>0.001222898078149579</v>
+        <v>0.004192652487476611</v>
       </c>
       <c r="Q37">
-        <v>74.31596071291202</v>
+        <v>866.8471427320036</v>
       </c>
       <c r="R37">
-        <v>668.8436464162081</v>
+        <v>7801.624284588032</v>
       </c>
       <c r="S37">
-        <v>0.0001822891381129677</v>
+        <v>0.001353117748139734</v>
       </c>
       <c r="T37">
-        <v>0.0001822891381129676</v>
+        <v>0.001353117748139734</v>
       </c>
     </row>
   </sheetData>
